--- a/03-tables-and-charts/03-tables-and-charts.xlsx
+++ b/03-tables-and-charts/03-tables-and-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9451D4-679B-472C-A108-82F5E4C24B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FF30D8-79D9-4823-B943-E08428E2EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4129DB67-9083-4CB7-9570-6E23B2B7F054}"/>
   </bookViews>
@@ -189,6 +189,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD2042D"/>
+      <color rgb="FFD8B589"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -234,7 +240,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Woodworks Bookshelf Co. Cost Projections</a:t>
             </a:r>
           </a:p>
@@ -276,11 +289,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$E$16</c:f>
+              <c:f>Sheet1!$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -292,7 +305,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -301,36 +314,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$A$17:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$E$17:$E$22</c:f>
+              <c:f>Sheet1!$E$17:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -358,16 +344,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2C7-4BFE-A987-2F683057ACCC}"/>
+              <c16:uniqueId val="{00000000-3804-40F2-8F02-4F8403674CFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$F$16</c:f>
+              <c:f>Sheet1!$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -379,7 +365,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="D8B589"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -388,36 +374,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$A$17:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Woodworks Bookshelf Co.'!$F$17:$F$22</c:f>
+              <c:f>Sheet1!$F$17:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -445,7 +404,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2C7-4BFE-A987-2F683057ACCC}"/>
+              <c16:uniqueId val="{00000001-3804-40F2-8F02-4F8403674CFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -458,72 +417,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="991496847"/>
-        <c:axId val="991493487"/>
+        <c:axId val="1068216911"/>
+        <c:axId val="1068209711"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="991496847"/>
+        <c:axId val="1068216911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Years</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -560,7 +463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991493487"/>
+        <c:crossAx val="1068209711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="991493487"/>
+        <c:axId val="1068209711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,61 +491,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total Cost ($)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -674,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991496847"/>
+        <c:crossAx val="1068216911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -719,6 +567,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1317,26 +1172,24 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6E7107-4641-4DA3-BF68-C864BA76239C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E847ED-9B46-A13D-22AC-263AC36894B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1836,7 +1689,7 @@
   <dimension ref="A3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/03-tables-and-charts/03-tables-and-charts.xlsx
+++ b/03-tables-and-charts/03-tables-and-charts.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FF30D8-79D9-4823-B943-E08428E2EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CE853-D3B9-40F0-86B8-5DD92C4DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4129DB67-9083-4CB7-9570-6E23B2B7F054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1206,169 +1203,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Budget"/>
-      <sheetName val="NCAA T-Shirt Vendor"/>
-      <sheetName val="Woodworks Bookshelf Co."/>
-      <sheetName val="PETROL Jeans Cost and Profits"/>
-      <sheetName val="Quality Sweater Company"/>
-      <sheetName val="Haute Dog"/>
-      <sheetName val="B&amp;N Bookstore"/>
-      <sheetName val="Copy Shop"/>
-      <sheetName val="The Screamin' Blue Jays"/>
-      <sheetName val="The 19th Hole"/>
-      <sheetName val="Exercise Equipment Company"/>
-      <sheetName val="Gopher Drugs"/>
-      <sheetName val="Net Present Value"/>
-      <sheetName val="Regression and NPV"/>
-      <sheetName val="Campaign Marketing"/>
-      <sheetName val="Linear Programming"/>
-      <sheetName val="PC Tech Company"/>
-      <sheetName val="Furniture Company"/>
-      <sheetName val="Investment Allocaton"/>
-      <sheetName val="Feed Mix"/>
-      <sheetName val="Busing Problem"/>
-      <sheetName val="Linear Programming 2"/>
-      <sheetName val="Transportation Example"/>
-      <sheetName val="Construction Project"/>
-      <sheetName val="New Hire Assignments"/>
-      <sheetName val="MLB Umpire Assignment"/>
-      <sheetName val="College Professors"/>
-      <sheetName val="Transportation and Assignment"/>
-      <sheetName val="Princess Brides"/>
-      <sheetName val="Bolsa de Café"/>
-      <sheetName val="Art Posters"/>
-      <sheetName val="Binary Investment Decision"/>
-      <sheetName val="Horizon Wireless"/>
-      <sheetName val="Portfolio Variance"/>
-      <sheetName val="Motorcross Snowmobiles"/>
-      <sheetName val="Baseball Stadium"/>
-      <sheetName val="IP and Nonlinear Programming"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>Total Cherry</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>Total Oak</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>461</v>
-          </cell>
-          <cell r="F17">
-            <v>425</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1</v>
-          </cell>
-          <cell r="E18">
-            <v>469.4</v>
-          </cell>
-          <cell r="F18">
-            <v>431.63299999999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2</v>
-          </cell>
-          <cell r="E19">
-            <v>477.96163999999999</v>
-          </cell>
-          <cell r="F19">
-            <v>438.36988099999996</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>3</v>
-          </cell>
-          <cell r="E20">
-            <v>486.68819995999996</v>
-          </cell>
-          <cell r="F20">
-            <v>445.21227577699995</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>4</v>
-          </cell>
-          <cell r="E21">
-            <v>495.58302956803993</v>
-          </cell>
-          <cell r="F21">
-            <v>452.16184286720886</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>5</v>
-          </cell>
-          <cell r="E22">
-            <v>504.64954977880791</v>
-          </cell>
-          <cell r="F22">
-            <v>459.22026697398138</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1689,7 +1523,7 @@
   <dimension ref="A3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1585,7 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
@@ -1762,7 +1596,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
